--- a/data/Final/Codebook.xlsx
+++ b/data/Final/Codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +217,150 @@
     <t>Geometry of the census tract</t>
   </si>
   <si>
+    <t>microregion_id'</t>
+  </si>
+  <si>
+    <t>Microregion ID</t>
+  </si>
+  <si>
+    <t>microregion_name'</t>
+  </si>
+  <si>
+    <t>Microregion Name</t>
+  </si>
+  <si>
+    <t>mesoregion_id'</t>
+  </si>
+  <si>
+    <t>Mesoregion ID</t>
+  </si>
+  <si>
+    <t>mesoregion_name'</t>
+  </si>
+  <si>
+    <t>Mesoregion Name</t>
+  </si>
+  <si>
+    <t>A'</t>
+  </si>
+  <si>
+    <t>Accessibility Index</t>
+  </si>
+  <si>
+    <t>Q'</t>
+  </si>
+  <si>
+    <t>Average Quality Index</t>
+  </si>
+  <si>
+    <t>H'</t>
+  </si>
+  <si>
+    <t>Quality-Adjusted Accessibility Index</t>
+  </si>
+  <si>
+    <t>pct_black'</t>
+  </si>
+  <si>
+    <t>% Black</t>
+  </si>
+  <si>
+    <t>pct_white'</t>
+  </si>
+  <si>
+    <t>% White</t>
+  </si>
+  <si>
+    <t>pct_indigenous'</t>
+  </si>
+  <si>
+    <t>% Indigenous</t>
+  </si>
+  <si>
+    <t>pct_pardos'</t>
+  </si>
+  <si>
+    <t>% Pardos</t>
+  </si>
+  <si>
+    <t>pct_asian'</t>
+  </si>
+  <si>
+    <t>% Asian</t>
+  </si>
+  <si>
+    <t>pct_men'</t>
+  </si>
+  <si>
+    <t>% Men</t>
+  </si>
+  <si>
+    <t>area'</t>
+  </si>
+  <si>
+    <t>Area of census tract</t>
+  </si>
+  <si>
+    <t>density'</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>zone_rural'</t>
+  </si>
+  <si>
+    <t>Is rural?</t>
+  </si>
+  <si>
+    <t>zone_urban'</t>
+  </si>
+  <si>
+    <t>Is urban?</t>
+  </si>
+  <si>
+    <t>region_Midwest'</t>
+  </si>
+  <si>
+    <t>Is in the Midwest?</t>
+  </si>
+  <si>
+    <t>region_North'</t>
+  </si>
+  <si>
+    <t>Is in the North?</t>
+  </si>
+  <si>
+    <t>region_Northeast'</t>
+  </si>
+  <si>
+    <t>Is in the Northeast?</t>
+  </si>
+  <si>
+    <t>region_South'</t>
+  </si>
+  <si>
+    <t>Is in the South?</t>
+  </si>
+  <si>
+    <t>region_Southeast'</t>
+  </si>
+  <si>
+    <t>Is in the Southeast?</t>
+  </si>
+  <si>
+    <t>fpl_above'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is above the Federal Poverty Line? </t>
+  </si>
+  <si>
+    <t>fpl_below'</t>
+  </si>
+  <si>
+    <t>Is below the Federal Poverty Line?</t>
+  </si>
+  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -244,25 +388,13 @@
     <t>mesoregion_name</t>
   </si>
   <si>
-    <t>Mesoregion Name</t>
-  </si>
-  <si>
     <t>mesoregion_id</t>
   </si>
   <si>
-    <t>Mesoregion ID</t>
-  </si>
-  <si>
     <t>microregion_name</t>
   </si>
   <si>
-    <t>Microregion Name</t>
-  </si>
-  <si>
     <t>microregion_id</t>
-  </si>
-  <si>
-    <t>Microregion ID</t>
   </si>
   <si>
     <t>Census Tract ID</t>
@@ -348,6 +480,36 @@
   </si>
   <si>
     <t>Geometry</t>
+  </si>
+  <si>
+    <t>ideb_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEB scores </t>
+  </si>
+  <si>
+    <t>saeb_school</t>
+  </si>
+  <si>
+    <t>SAEB scored</t>
+  </si>
+  <si>
+    <t>output_indicator_school</t>
+  </si>
+  <si>
+    <t>Rate of passing grade students</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>School quality (IDEB scores/10), using city or state if school data is not present</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>school capacity (35*n_classes)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -411,6 +573,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1010,6 +1174,270 @@
         <v>65</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1030,10 +1458,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1041,289 +1469,344 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>109</v>
+      <c r="B27" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
